--- a/projeto/calendar_generator_engine/src/test/java/rooms.xlsx
+++ b/projeto/calendar_generator_engine/src/test/java/rooms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duarte\Documents\GitHub\examCalendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duarte\Documents\GitHub\examCalendar\projeto\calendar_generator_engine\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t>b318</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>sim</t>
   </si>
@@ -35,22 +32,37 @@
     <t>não</t>
   </si>
   <si>
-    <t>b319</t>
-  </si>
-  <si>
-    <t>b320</t>
-  </si>
-  <si>
-    <t>b321</t>
-  </si>
-  <si>
-    <t>b317</t>
-  </si>
-  <si>
-    <t>b316</t>
-  </si>
-  <si>
-    <t>b315</t>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B232C</t>
+  </si>
+  <si>
+    <t>B232A</t>
+  </si>
+  <si>
+    <t>B116</t>
+  </si>
+  <si>
+    <t>B120</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>B231</t>
   </si>
 </sst>
 </file>
@@ -402,21 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,9 +493,53 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5000</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
